--- a/input/rectal_dataset_full.xlsx
+++ b/input/rectal_dataset_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90b7a5025e4172ad/rectal_chemo_vs_surveillance/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{5CF9A380-9EAA-5F40-8663-BD93FEF6C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C800366-3345-F74D-BE64-7467AB2AB91D}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{5CF9A380-9EAA-5F40-8663-BD93FEF6C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D857B9E-CDD9-DF40-AE16-95D54EE3B703}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="760" windowWidth="23400" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9340" yWindow="3700" windowWidth="34080" windowHeight="21440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -11926,10 +11935,10 @@
   <dimension ref="A1:CA1541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AR55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ62" sqref="AJ62"/>
+      <selection pane="bottomRight" activeCell="BB57" sqref="BB57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23684,7 +23693,7 @@
       <c r="BZ73" s="246"/>
       <c r="CA73" s="246"/>
     </row>
-    <row r="74" spans="1:79" s="43" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:79" s="43" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="209" t="s">
         <v>812</v>
       </c>
@@ -25972,7 +25981,7 @@
       <c r="BZ87" s="257"/>
       <c r="CA87" s="258"/>
     </row>
-    <row r="88" spans="1:79" s="43" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:79" s="43" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>928</v>
       </c>
@@ -27842,7 +27851,7 @@
       <c r="BY98" s="237"/>
       <c r="BZ98" s="261"/>
     </row>
-    <row r="99" spans="1:78" s="155" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:78" s="155" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" s="151" t="s">
         <v>1040</v>
       </c>
@@ -28364,7 +28373,7 @@
       <c r="BY101" s="237"/>
       <c r="BZ101" s="261"/>
     </row>
-    <row r="102" spans="1:78" s="155" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:78" s="155" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="151" t="s">
         <v>1070</v>
       </c>
@@ -30757,7 +30766,7 @@
       <c r="BY115" s="237"/>
       <c r="BZ115" s="261"/>
     </row>
-    <row r="116" spans="1:78" s="155" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:78" s="155" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A116" s="151" t="s">
         <v>1207</v>
       </c>
@@ -30931,7 +30940,7 @@
       <c r="BY116" s="237"/>
       <c r="BZ116" s="261"/>
     </row>
-    <row r="117" spans="1:78" s="155" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:78" s="155" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A117" s="151" t="s">
         <v>1220</v>
       </c>
@@ -31801,7 +31810,7 @@
       <c r="BY121" s="237"/>
       <c r="BZ121" s="261"/>
     </row>
-    <row r="122" spans="1:78" s="155" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:78" s="155" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A122" s="151" t="s">
         <v>1270</v>
       </c>
@@ -32321,7 +32330,7 @@
       <c r="BY124" s="237"/>
       <c r="BZ124" s="261"/>
     </row>
-    <row r="125" spans="1:78" s="155" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:78" s="155" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A125" s="151" t="s">
         <v>1299</v>
       </c>
@@ -33697,7 +33706,7 @@
       <c r="BY132" s="237"/>
       <c r="BZ132" s="261"/>
     </row>
-    <row r="133" spans="1:78" s="155" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:78" s="155" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A133" s="151" t="s">
         <v>1362</v>
       </c>
@@ -35161,7 +35170,7 @@
       <c r="BY141" s="262"/>
       <c r="BZ141" s="262"/>
     </row>
-    <row r="142" spans="1:78" s="155" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:78" s="155" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A142" s="238" t="s">
         <v>1425</v>
       </c>
@@ -35985,7 +35994,7 @@
       </c>
       <c r="BC146" s="170"/>
     </row>
-    <row r="147" spans="1:55" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:55" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A147" s="238" t="s">
         <v>1472</v>
       </c>
@@ -38248,7 +38257,7 @@
       <c r="BB162" s="292"/>
       <c r="BC162" s="293"/>
     </row>
-    <row r="163" spans="1:55" s="282" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:55" s="282" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A163" s="279" t="s">
         <v>1610</v>
       </c>
@@ -38858,7 +38867,7 @@
       </c>
       <c r="BC166" s="281"/>
     </row>
-    <row r="167" spans="1:55" s="282" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:55" s="282" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A167" s="279" t="s">
         <v>1629</v>
       </c>
@@ -40237,7 +40246,7 @@
       </c>
       <c r="BC175" s="281"/>
     </row>
-    <row r="176" spans="1:55" s="282" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:55" s="282" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A176" s="279" t="s">
         <v>1681</v>
       </c>
@@ -40389,7 +40398,7 @@
       </c>
       <c r="BC176" s="281"/>
     </row>
-    <row r="177" spans="1:55" s="282" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:55" s="282" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A177" s="279" t="s">
         <v>1688</v>
       </c>

--- a/input/rectal_dataset_full.xlsx
+++ b/input/rectal_dataset_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90b7a5025e4172ad/rectal_chemo_vs_surveillance/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{5CF9A380-9EAA-5F40-8663-BD93FEF6C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D857B9E-CDD9-DF40-AE16-95D54EE3B703}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{5CF9A380-9EAA-5F40-8663-BD93FEF6C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A81F57E4-9A68-3746-A793-B224B77A03F5}"/>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="3700" windowWidth="34080" windowHeight="21440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9340" yWindow="3700" windowWidth="41860" windowHeight="23080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10554,7 +10554,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11609,6 +11609,9 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -11935,10 +11938,10 @@
   <dimension ref="A1:CA1541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AR55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AW72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB57" sqref="BB57"/>
+      <selection pane="bottomRight" activeCell="BB73" sqref="BB73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23665,7 +23668,7 @@
         <v>174</v>
       </c>
       <c r="BB73" s="226">
-        <v>42547</v>
+        <v>44008</v>
       </c>
       <c r="BC73" s="246"/>
       <c r="BD73" s="246"/>
@@ -35995,7 +35998,7 @@
       <c r="BC146" s="170"/>
     </row>
     <row r="147" spans="1:55" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A147" s="238" t="s">
+      <c r="A147" s="368" t="s">
         <v>1472</v>
       </c>
       <c r="B147" s="260">
@@ -37187,7 +37190,7 @@
       <c r="BC154" s="170"/>
     </row>
     <row r="155" spans="1:55" ht="176" x14ac:dyDescent="0.2">
-      <c r="A155" s="238" t="s">
+      <c r="A155" s="368" t="s">
         <v>1548</v>
       </c>
       <c r="B155" s="260">
